--- a/output.xlsx
+++ b/output.xlsx
@@ -483,46 +483,46 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>202204031418</v>
+        <v>202204031431</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>913739849</v>
+        <v>475868152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>202204031429</v>
+        <v>202204031431</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>621641348</v>
+        <v>515927555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>202204031431</v>
+        <v>202204031418</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -531,25 +531,25 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>515927555</v>
+        <v>913739849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>202204031431</v>
+        <v>202204031441</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>475868152</v>
+        <v>299767476</v>
       </c>
     </row>
     <row r="6">
@@ -573,19 +573,19 @@
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>202204031441</v>
+        <v>202204031429</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>299767476</v>
+        <v>621641348</v>
       </c>
     </row>
     <row r="8">
@@ -595,46 +595,46 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>202204031019</v>
+        <v>202204031300</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>711104665</v>
+        <v>707817792</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>202204031252</v>
+        <v>202204031435</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>805564714</v>
+        <v>714239103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>202204031300</v>
+        <v>202204031441</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -643,88 +643,88 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>707817792</v>
+        <v>334129184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>202204031309</v>
+        <v>202204031434</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>942036837</v>
+        <v>260806324</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>202204031351</v>
+        <v>202204031605</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>503826827</v>
+        <v>998436127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>202204031424</v>
+        <v>202204031019</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>596356174</v>
+        <v>711104665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>202204031431</v>
+        <v>202204031433</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>391772033</v>
+        <v>432478322</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>202204031433</v>
+        <v>202204031452</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
@@ -733,187 +733,187 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>432478322</v>
+        <v>563358514</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>202204031434</v>
+        <v>202204031252</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>260806324</v>
+        <v>805564714</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>202204031434</v>
+        <v>202204031424</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>969035751</v>
+        <v>596356174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>202204031435</v>
+        <v>202204031437</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>714239103</v>
+        <v>365267956</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>202204031437</v>
+        <v>202204031434</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>365267956</v>
+        <v>969035751</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>202204031441</v>
+        <v>202204031309</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>334129184</v>
+        <v>942036837</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>202204031442</v>
+        <v>202204031431</v>
       </c>
       <c r="D21" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>759678881</v>
+        <v>391772033</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>202204031452</v>
+        <v>202204031453</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>563358514</v>
+        <v>951368816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>202204031453</v>
+        <v>202204031351</v>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>951368816</v>
+        <v>503826827</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n">
-        <v>202204031453</v>
+        <v>202204031442</v>
       </c>
       <c r="D24" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>122268613</v>
+        <v>759678881</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>202204031605</v>
+        <v>202204031939</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>998436127</v>
+        <v>480765417</v>
       </c>
     </row>
     <row r="26">
@@ -937,19 +937,19 @@
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>202204031939</v>
+        <v>202204031453</v>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>480765417</v>
+        <v>122268613</v>
       </c>
     </row>
   </sheetData>
